--- a/sequences/fastseq_conditions_02.xlsx
+++ b/sequences/fastseq_conditions_02.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="fast_seq" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -549,39 +549,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -589,37 +589,37 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_20.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
     </row>
@@ -633,43 +633,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_29.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>9</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_38.jpg</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>14</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_06.jpg</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>6</v>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -677,37 +677,37 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_20.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
     </row>
@@ -721,35 +721,35 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -757,7 +757,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -765,37 +765,37 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_23.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_23.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_07.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
     </row>
@@ -813,77 +813,77 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_06.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
     </row>
@@ -897,11 +897,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -909,69 +909,69 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_11.jpg</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>stimuli/ball/ball_28.jpg</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>stimuli/candle/candle_38.jpg</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>16</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_01.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_14.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_07.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
     </row>
@@ -985,71 +985,71 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>8</v>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1085,23 +1085,23 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_27.jpg</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>14</v>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -1109,45 +1109,45 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_09.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
     </row>
@@ -1161,81 +1161,81 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>stimuli/jacket/jacket_16.jpg</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_06.jpg</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_01.jpg</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>8</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_07.jpg</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_26.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_20.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
     </row>
@@ -1249,61 +1249,61 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>8</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>stimuli/candle/candle_38.jpg</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>16</v>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1313,17 +1313,17 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_12.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
     </row>
@@ -1337,81 +1337,81 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>stimuli/ball/ball_18.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_06.jpg</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>stimuli/plane/plane_26.jpg</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>29</v>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_11.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_09.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
     </row>
@@ -1425,81 +1425,81 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>stimuli/chair/chair_06.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_21.jpg</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_26.jpg</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>3</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_27.jpg</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>14</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_36.jpg</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>8</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>6</v>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_09.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
     </row>
@@ -1513,19 +1513,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_20.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_06.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_23.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_12.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
     </row>
@@ -1601,81 +1601,81 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_21.jpg</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_13.jpg</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>8</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_27.jpg</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>14</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_36.jpg</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>stimuli/candle/candle_38.jpg</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>16</v>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_11.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
     </row>
@@ -1689,81 +1689,81 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_40.jpg</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>stimuli/chair/chair_15.jpg</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>3</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>stimuli/house/house_01.jpg</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>stimuli/plane/plane_26.jpg</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>29</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_07.jpg</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_06.jpg</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_01.jpg</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_11.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
     </row>
@@ -1777,11 +1777,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1789,69 +1789,69 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_11.jpg</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_28.jpg</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
     </row>
@@ -1865,81 +1865,81 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_40.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>stimuli/house/house_01.jpg</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>9</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>stimuli/plane/plane_26.jpg</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>29</v>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_38.jpg</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>14</v>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_05.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
     </row>
@@ -1953,81 +1953,81 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_13.jpg</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_26.jpg</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>3</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>6</v>
-      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_14.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
     </row>
@@ -2041,81 +2041,81 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_29.jpg</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>9</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>stimuli/plane/plane_26.jpg</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>29</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>7</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>10</v>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_23.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_06.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_05.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
     </row>
@@ -2129,81 +2129,81 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_08.jpg</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_13.jpg</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>8</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_28.jpg</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>6</v>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_11.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
     </row>
@@ -2217,81 +2217,81 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>stimuli/ball/ball_18.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_29.jpg</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>stimuli/chair/chair_15.jpg</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>4</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_38.jpg</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>14</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_01.jpg</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>8</v>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
     </row>
@@ -2305,47 +2305,47 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_21.jpg</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>stimuli/jacket/jacket_10.jpg</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>10</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_36.jpg</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>8</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_28.jpg</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_26.jpg</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>3</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>stimuli/candle/candle_38.jpg</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>16</v>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2354,32 +2354,32 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
     </row>
@@ -2393,11 +2393,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2405,23 +2405,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -2429,45 +2429,45 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_14.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_11.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
     </row>
@@ -2481,35 +2481,35 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -2517,45 +2517,45 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_12.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_07.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_05.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_26.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
     </row>
@@ -2569,19 +2569,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_20.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_06.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_26.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
     </row>
@@ -2657,11 +2657,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -2669,69 +2669,69 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_05.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_07.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
     </row>
@@ -2745,71 +2745,71 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_09.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_23.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
     </row>
@@ -2833,81 +2833,81 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_13.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_21.jpg</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_26.jpg</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>stimuli/ball/ball_28.jpg</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>10</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_21.jpg</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_28.jpg</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_06.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
     </row>
@@ -2921,81 +2921,81 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>stimuli/ball/ball_18.jpg</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>7</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_01.jpg</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_23.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_07.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_20.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
     </row>
@@ -3009,61 +3009,61 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>stimuli/chair/chair_06.jpg</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_08.jpg</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>9</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>stimuli/jacket/jacket_10.jpg</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>8</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_26.jpg</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>3</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>6</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_36.jpg</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>8</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_27.jpg</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>10</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -3073,17 +3073,17 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
     </row>
@@ -3097,81 +3097,81 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>stimuli/jacket/jacket_16.jpg</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>stimuli/house/house_01.jpg</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_29.jpg</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>9</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_38.jpg</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>14</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_06.jpg</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>6</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_07.jpg</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_23.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_07.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
     </row>
@@ -3185,81 +3185,81 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_21.jpg</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>7</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_13.jpg</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_26.jpg</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>3</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_27.jpg</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>14</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>stimuli/candle/candle_38.jpg</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>16</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_21.jpg</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>4</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>6</v>
-      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_26.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_01.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
     </row>
@@ -3273,81 +3273,81 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>3</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_38.jpg</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>14</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>8</v>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_06.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
     </row>
@@ -3361,66 +3361,66 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_21.jpg</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>7</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>stimuli/ball/ball_28.jpg</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_36.jpg</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>8</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>10</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>5</v>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_12.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
     </row>
@@ -3449,81 +3449,81 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_40.jpg</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>7</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>stimuli/plane/plane_26.jpg</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>29</v>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_20.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_06.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
     </row>
@@ -3537,56 +3537,56 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_20.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3596,22 +3596,22 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_06.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
     </row>
@@ -3625,66 +3625,66 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>stimuli/jacket/jacket_16.jpg</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_29.jpg</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>9</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>7</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>3</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>stimuli/house/house_01.jpg</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>9</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_38.jpg</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>14</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_01.jpg</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>10</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_07.jpg</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_05.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_26.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3694,12 +3694,12 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
     </row>
@@ -3713,11 +3713,11 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -3725,54 +3725,54 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3782,12 +3782,12 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
     </row>
@@ -3801,43 +3801,43 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>stimuli/ball/ball_18.jpg</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_06.jpg</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>6</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>stimuli/plane/plane_26.jpg</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>29</v>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="I39" t="n">
+        <v>10</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>7</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>10</v>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -3845,37 +3845,37 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_12.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_26.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
     </row>
@@ -3893,15 +3893,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -3909,23 +3909,23 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -3933,37 +3933,37 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_07.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
     </row>
@@ -3977,81 +3977,81 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
     </row>
@@ -4069,77 +4069,77 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_08.jpg</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>2</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>stimuli/ball/ball_16.jpg</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_21.jpg</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>4</v>
-      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_06.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_23.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_01.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_26.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
     </row>
@@ -4153,81 +4153,81 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_05.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_09.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
     </row>
@@ -4241,81 +4241,81 @@
         </is>
       </c>
       <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>stimuli/chair/chair_06.jpg</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_11.jpg</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_13.jpg</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>6</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>8</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_26.jpg</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>3</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>10</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>6</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_28.jpg</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>stimuli/ball/ball_16.jpg</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_11.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
     </row>
@@ -4329,56 +4329,56 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>stimuli/ball/ball_18.jpg</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_07.jpg</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>6</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>3</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_07.jpg</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>4</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>8</v>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4388,22 +4388,22 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_20.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_07.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
     </row>
@@ -4417,43 +4417,43 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>7</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_08.jpg</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>8</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>stimuli/ball/ball_16.jpg</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>stimuli/candle/candle_38.jpg</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>16</v>
-      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -4461,37 +4461,37 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_05.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_23.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
     </row>
@@ -4509,15 +4509,15 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4525,61 +4525,61 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_05.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_09.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_01.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_09.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
     </row>
@@ -4593,81 +4593,81 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>stimuli/chair/chair_06.jpg</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_21.jpg</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_36.jpg</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>8</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>stimuli/candle/candle_38.jpg</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>16</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_05.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
     </row>
@@ -4685,52 +4685,52 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>stimuli/jacket/jacket_16.jpg</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>7</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>stimuli/plane/plane_26.jpg</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>29</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_01.jpg</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>10</v>
-      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_12.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4740,22 +4740,22 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_14.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
     </row>
@@ -4769,51 +4769,51 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4823,27 +4823,27 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_06.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
     </row>
@@ -4857,81 +4857,81 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_29.jpg</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>9</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>stimuli/plane/plane_26.jpg</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>29</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_07.jpg</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>3</v>
-      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_05.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
     </row>
@@ -4949,23 +4949,23 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4973,53 +4973,53 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_12.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
     </row>
@@ -5033,61 +5033,61 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>3</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_29.jpg</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>9</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>10</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_07.jpg</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>8</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>7</v>
-      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5097,17 +5097,17 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_09.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
     </row>
@@ -5121,81 +5121,81 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_21.jpg</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>7</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>stimuli/jacket/jacket_10.jpg</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_08.jpg</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_13.jpg</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>6</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>stimuli/candle/candle_38.jpg</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>16</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>stimuli/book/book_27.jpg</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>14</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_28.jpg</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>5</v>
-      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_04.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_09.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
     </row>
@@ -5209,11 +5209,11 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -5221,69 +5221,69 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_10.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
     </row>
@@ -5297,51 +5297,51 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_01.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -5351,27 +5351,27 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_02.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
     </row>
@@ -5385,35 +5385,35 @@
         </is>
       </c>
       <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>stimuli/ball/ball_18.jpg</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
         <v>1</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>stimuli/house/house_01.jpg</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>9</v>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_26.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -5421,45 +5421,45 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_01.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_11.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_08.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_07.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_15.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
     </row>
@@ -5473,81 +5473,81 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>7</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>stimuli/ball/ball_28.jpg</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>1</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_21.jpg</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>4</v>
-      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_24.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_25.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_22.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
     </row>
@@ -5561,81 +5561,81 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>stimuli/book/book_38.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_01.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_16.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_13.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
     </row>
@@ -5653,67 +5653,67 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_07.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_26.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_27.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_21.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_11.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
     </row>
@@ -5737,81 +5737,81 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>stimuli/chair/chair_15.jpg</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>stimuli/jacket/jacket_16.jpg</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>10</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>7</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_07.jpg</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_07.jpg</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>8</v>
-      </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_03.png</t>
+          <t>stimuli/mask_images/mask_04.png</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_26.png</t>
+          <t>stimuli/mask_images/mask_00.png</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_00.png</t>
+          <t>stimuli/mask_images/mask_02.png</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_18.png</t>
+          <t>stimuli/mask_images/mask_03.png</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_17.png</t>
+          <t>stimuli/mask_images/mask_01.png</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>stimuli/mask_images/mask_19.png</t>
+          <t>stimuli/mask_images/mask_05.png</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
     </row>
